--- a/eTactWeb/wwwroot/Uploads/ImportSaleOrderFormat.xlsx
+++ b/eTactWeb/wwwroot/Uploads/ImportSaleOrderFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumitra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00391C4-0CB7-4278-ADEF-4C74EE058946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F7E20-31BE-4E27-A2D9-FA2356739B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Part Code</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>FGAL0001</t>
-  </si>
-  <si>
-    <t>AAA</t>
+    <t>0001-908</t>
+  </si>
+  <si>
+    <t>aqa</t>
+  </si>
+  <si>
+    <t>dsf</t>
   </si>
 </sst>
 </file>
@@ -82,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,12 +430,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -462,10 +469,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45292</v>
       </c>
     </row>
   </sheetData>
